--- a/data/trans_camb/P38_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P38_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -554,27 +567,42 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>M4/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M2</t>
-        </is>
-      </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M2</t>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,59</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>12,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,15</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,61</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,88</t>
+          <t>10,08</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>8,52</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,04</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>11,37</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4,78</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,87; 30,29</t>
+          <t>-7,43; 6,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 10,8</t>
+          <t>3,1; 22,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,55; 26,83</t>
+          <t>-9,79; 13,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 14,29</t>
+          <t>-5,72; 5,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,42; 26,82</t>
+          <t>2,86; 18,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 10,75</t>
+          <t>-1,62; 19,28</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-4,66; 4,81</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5,47; 17,47</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-3,18; 12,7</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>205,2%</t>
+          <t>-4,47%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>23,54%</t>
+          <t>137,37%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>230,35%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>91,5%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>216,03%</t>
+          <t>130,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>53,9%</t>
+          <t>47,78%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-0,43%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>133,62%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>24,04%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>66,01; 516,62</t>
+          <t>-62,77; 119,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-44,97; 172,84</t>
+          <t>15,15; 368,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>70,16; 489,96</t>
+          <t>-36,59; 81,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 271,95</t>
+          <t>-52,43; 121,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>107,67; 414,84</t>
+          <t>23,07; 372,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 153,79</t>
+          <t>-6,95; 153,99</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-43,12; 79,03</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>48,09; 280,71</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-13,85; 76,98</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,53</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>7,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,42</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,16</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15,97</t>
+          <t>8,14</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,28</t>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3,28</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7,63</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,49</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,74; 23,4</t>
+          <t>-1,51; 9,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 9,81</t>
+          <t>1,41; 14,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,75; 24,18</t>
+          <t>-5,55; 16,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 12,8</t>
+          <t>-3,88; 9,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,66; 21,24</t>
+          <t>0,42; 15,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 10,27</t>
+          <t>-10,11; 7,98</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-1,19; 7,77</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2,46; 13,37</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-4,65; 10,43</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>294,16%</t>
+          <t>63,77%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>87,79%</t>
+          <t>145,77%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>128,25%</t>
+          <t>26,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>48,1%</t>
+          <t>27,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>180,25%</t>
+          <t>66,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>59,58%</t>
+          <t>-3,27%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>38,92%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>90,44%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>9,27%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>101,52; 759,97</t>
+          <t>-29,66; 340,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,39; 312,45</t>
+          <t>10,71; 505,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>50,63; 263,24</t>
+          <t>-37,94; 194,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 129,62</t>
+          <t>-26,78; 117,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,19; 332,34</t>
+          <t>1,1; 168,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,93; 159,58</t>
+          <t>-38,81; 48,01</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-13,05; 125,2</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>25,14; 221,79</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-25,71; 75,59</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,85</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,64</t>
+          <t>7,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>22,15</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,18</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>19,95</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,0</t>
+          <t>-2,04</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,15</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,67</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-1,2</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,02; 26,03</t>
+          <t>-1,91; 7,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,18; 15,1</t>
+          <t>1,18; 15,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,48; 28,28</t>
+          <t>-8,25; 7,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,66; 15,85</t>
+          <t>-4,13; 6,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,15; 24,55</t>
+          <t>-0,26; 12,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,92; 13,36</t>
+          <t>-9,79; 4,86</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 5,76</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,8; 10,87</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-6,88; 3,99</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>256,44%</t>
+          <t>39,5%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>109,7%</t>
+          <t>94,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>169,97%</t>
+          <t>-0,35%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>78,11%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>199,2%</t>
+          <t>45,87%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>89,84%</t>
+          <t>-10,36%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>20,33%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>63,01%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-6,94%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>119,79; 528,99</t>
+          <t>-20,95; 151,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,79; 317,15</t>
+          <t>9,58; 276,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>96,07; 279,87</t>
+          <t>-46,09; 67,32</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>27,49; 160,97</t>
+          <t>-25,86; 60,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>127,94; 304,45</t>
+          <t>-3,32; 118,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>40,95; 162,44</t>
+          <t>-40,71; 30,49</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-12,28; 64,91</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>13,63; 119,3</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-34,62; 28,83</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>20,69</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,2</t>
+          <t>8,95</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>25,03</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,06</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>22,89</t>
+          <t>14,28</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,18</t>
+          <t>-5,41</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1,45</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>11,6</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-1,33</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,09; 27,64</t>
+          <t>-4,91; 5,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,55; 13,43</t>
+          <t>3,21; 15,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,95; 31,13</t>
+          <t>-4,34; 11,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,32; 21,85</t>
+          <t>-2,66; 7,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,82; 27,58</t>
+          <t>8,45; 20,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,25; 15,96</t>
+          <t>-12,08; 1,44</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,26; 4,89</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>7,45; 15,75</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-7,02; 3,4</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>206,38%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>81,83%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>237,26%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>152,23%</t>
+          <t>24,5%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>222,33%</t>
+          <t>134,14%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>118,27%</t>
+          <t>-21,72%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>14,06%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>112,47%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-6,08%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>103,31; 353,64</t>
+          <t>-38,08; 74,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17,9; 179,87</t>
+          <t>23,87; 215,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>126,17; 397,47</t>
+          <t>-21,32; 73,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>72,39; 274,08</t>
+          <t>-19,97; 97,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>151,69; 325,67</t>
+          <t>61,64; 257,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>67,46; 186,28</t>
+          <t>-42,66; 7,11</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-18,28; 59,1</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>58,42; 183,72</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-28,38; 17,86</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>22,14</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>14,46</t>
+          <t>23,82</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>32,88</t>
+          <t>-6,91</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>25,58</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>27,58</t>
+          <t>23,93</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>20,12</t>
+          <t>-8,48</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>23,88</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-7,7</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>13,07; 30,95</t>
+          <t>-7,6; 7,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,99; 23,22</t>
+          <t>14,35; 33,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>23,51; 40,96</t>
+          <t>-16,37; 4,04</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>17,02; 33,88</t>
+          <t>-4,01; 13,28</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>21,28; 33,37</t>
+          <t>14,37; 33,08</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>14,05; 26,2</t>
+          <t>-18,65; 2,12</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-3,07; 7,8</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>17,33; 30,91</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-15,0; -0,86</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>97,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>63,47%</t>
+          <t>105,92%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>130,93%</t>
+          <t>-14,92%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>101,85%</t>
+          <t>20,14%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>115,1%</t>
+          <t>96,09%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>83,97%</t>
+          <t>-17,36%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>10,55%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>100,71%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-16,18%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>45,26; 164,84</t>
+          <t>-27,73; 44,61</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>21,41; 130,03</t>
+          <t>51,77; 190,33</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>77,6; 203,91</t>
+          <t>-32,9; 9,39</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>57,35; 166,24</t>
+          <t>-12,9; 61,39</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>77,32; 161,04</t>
+          <t>50,19; 157,77</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>49,98; 128,47</t>
+          <t>-35,05; 4,95</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-11,25; 36,87</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>65,1; 155,24</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-29,47; -1,94</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>18,34</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>10,71</t>
+          <t>16,53</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>26,4</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>26,28</t>
+          <t>8,01</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>22,87</t>
+          <t>24,68</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>19,55</t>
+          <t>3,15</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>4,98</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>21,18</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2,34</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>8,01; 28,78</t>
+          <t>-9,93; 12,89</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 22,08</t>
+          <t>6,5; 28,42</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>17,43; 35,74</t>
+          <t>-9,21; 12,1</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>17,91; 36,52</t>
+          <t>-1,2; 17,71</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>15,69; 29,72</t>
+          <t>14,51; 35,28</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>12,71; 27,11</t>
+          <t>-6,54; 13,48</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 12,61</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>13,9; 28,68</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-4,62; 9,19</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>27,04%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>53,53%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>53,28%</t>
+          <t>15,92%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>41,51%</t>
+          <t>49,01%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>35,48%</t>
+          <t>4,2%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>9,06%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>38,52%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>3,07%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>11,97; 53,79</t>
+          <t>-14,95; 23,56</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 41,14</t>
+          <t>9,64; 54,6</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>32,92; 84,16</t>
+          <t>-11,15; 16,87</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>32,45; 83,98</t>
+          <t>-2,37; 39,15</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>26,63; 59,58</t>
+          <t>26,39; 77,72</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>21,67; 53,77</t>
+          <t>-8,18; 19,35</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-3,59; 24,89</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>24,39; 57,0</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-5,68; 12,57</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>18,71</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>7,64</t>
+          <t>12,67</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>23,7</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>15,32</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>21,26</t>
+          <t>15,01</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>11,57</t>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>2,08</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>13,86</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>14,74; 22,36</t>
+          <t>-2,37; 4,29</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>4,25; 11,23</t>
+          <t>8,69; 16,94</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>19,93; 27,19</t>
+          <t>-4,49; 4,82</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>11,79; 19,19</t>
+          <t>-0,1; 6,15</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>18,47; 23,87</t>
+          <t>10,97; 19,02</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>9,03; 14,29</t>
+          <t>-4,63; 3,82</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-0,35; 4,38</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>11,2; 16,69</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-3,74; 2,89</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>99,64%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>40,69%</t>
+          <t>68,78%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>113,8%</t>
+          <t>-0,45%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>73,58%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>107,21%</t>
+          <t>71,6%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>58,36%</t>
+          <t>-0,85%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>10,52%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>70,27%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-0,76%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>70,35; 134,17</t>
+          <t>-12,09; 25,33</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>20,03; 66,92</t>
+          <t>43,2; 102,32</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>87,57; 145,65</t>
+          <t>-13,79; 17,43</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>50,23; 99,53</t>
+          <t>-0,31; 31,04</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>85,71; 128,49</t>
+          <t>48,51; 97,55</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>42,11; 77,61</t>
+          <t>-12,37; 11,27</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-1,68; 23,41</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>53,21; 89,58</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-10,6; 8,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
